--- a/data/pca/factorExposure/factorExposure_2016-01-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-01-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01990054778879666</v>
+        <v>-0.01911676598802118</v>
       </c>
       <c r="C2">
-        <v>-0.04536703182980821</v>
+        <v>0.04014210771144346</v>
       </c>
       <c r="D2">
-        <v>-0.09750660687505444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1181093580316118</v>
+      </c>
+      <c r="E2">
+        <v>-0.08463109330422212</v>
+      </c>
+      <c r="F2">
+        <v>-0.003701712726824596</v>
+      </c>
+      <c r="G2">
+        <v>-0.02005358074435376</v>
+      </c>
+      <c r="H2">
+        <v>-0.1034000848375516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02098786364794804</v>
+        <v>-0.01251601998797005</v>
       </c>
       <c r="C3">
-        <v>-0.06340814594928761</v>
+        <v>0.03543615896311562</v>
       </c>
       <c r="D3">
-        <v>-0.1499084881881831</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08422989249743902</v>
+      </c>
+      <c r="E3">
+        <v>-0.09114017140653972</v>
+      </c>
+      <c r="F3">
+        <v>-0.02733269977552345</v>
+      </c>
+      <c r="G3">
+        <v>-0.08820475621326711</v>
+      </c>
+      <c r="H3">
+        <v>-0.05335946068344388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05273946156133562</v>
+        <v>-0.05633863040848654</v>
       </c>
       <c r="C4">
-        <v>-0.05074293530035891</v>
+        <v>0.0655185138729788</v>
       </c>
       <c r="D4">
-        <v>-0.1266513857522088</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1326557168802713</v>
+      </c>
+      <c r="E4">
+        <v>-0.05814562705693369</v>
+      </c>
+      <c r="F4">
+        <v>-0.01767755859872883</v>
+      </c>
+      <c r="G4">
+        <v>0.02042952904364544</v>
+      </c>
+      <c r="H4">
+        <v>0.03996219641872239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04476256846706735</v>
+        <v>-0.04149151375267454</v>
       </c>
       <c r="C6">
-        <v>-0.02499927877714606</v>
+        <v>0.02788627584582073</v>
       </c>
       <c r="D6">
-        <v>-0.1232563623414433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1249610331496571</v>
+      </c>
+      <c r="E6">
+        <v>-0.04474889034450061</v>
+      </c>
+      <c r="F6">
+        <v>-0.01454657176566631</v>
+      </c>
+      <c r="G6">
+        <v>-0.003878389263325736</v>
+      </c>
+      <c r="H6">
+        <v>-0.006514698895815712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02439207628488327</v>
+        <v>-0.01811240487047468</v>
       </c>
       <c r="C7">
-        <v>-0.01848761743963647</v>
+        <v>0.03101741301204082</v>
       </c>
       <c r="D7">
-        <v>-0.08742742729518416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09151091726105895</v>
+      </c>
+      <c r="E7">
+        <v>-0.04609727958025474</v>
+      </c>
+      <c r="F7">
+        <v>-0.01224444710780097</v>
+      </c>
+      <c r="G7">
+        <v>0.05381784976755523</v>
+      </c>
+      <c r="H7">
+        <v>-0.08287964185349377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009823208229409608</v>
+        <v>-0.009825616427804865</v>
       </c>
       <c r="C8">
-        <v>-0.0365948210080597</v>
+        <v>0.03653340410416967</v>
       </c>
       <c r="D8">
-        <v>-0.0648312205753693</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07406427497942629</v>
+      </c>
+      <c r="E8">
+        <v>-0.04295792633111071</v>
+      </c>
+      <c r="F8">
+        <v>-0.0323612178556249</v>
+      </c>
+      <c r="G8">
+        <v>0.008274397008731711</v>
+      </c>
+      <c r="H8">
+        <v>-0.02831818821721099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03912367099237166</v>
+        <v>-0.04140080430841648</v>
       </c>
       <c r="C9">
-        <v>-0.04273413026583307</v>
+        <v>0.05774023710342866</v>
       </c>
       <c r="D9">
-        <v>-0.1053993688090619</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1130815182425799</v>
+      </c>
+      <c r="E9">
+        <v>-0.04805415128702177</v>
+      </c>
+      <c r="F9">
+        <v>-0.0002371801346725853</v>
+      </c>
+      <c r="G9">
+        <v>0.02817265166862088</v>
+      </c>
+      <c r="H9">
+        <v>0.0007239046104119438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.08803996367743404</v>
+        <v>-0.1246347676763535</v>
       </c>
       <c r="C10">
-        <v>0.1926766516164925</v>
+        <v>-0.1940381707308984</v>
       </c>
       <c r="D10">
-        <v>-0.0118391844921235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.001782184689179526</v>
+      </c>
+      <c r="E10">
+        <v>-0.05568602537495838</v>
+      </c>
+      <c r="F10">
+        <v>-0.01377978408992748</v>
+      </c>
+      <c r="G10">
+        <v>0.03092526098846147</v>
+      </c>
+      <c r="H10">
+        <v>0.01976923663319441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03472609958508807</v>
+        <v>-0.02932009866468575</v>
       </c>
       <c r="C11">
-        <v>-0.03945242878005054</v>
+        <v>0.04201227412232973</v>
       </c>
       <c r="D11">
-        <v>-0.05703622884537195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05832076782340789</v>
+      </c>
+      <c r="E11">
+        <v>-0.008606326341309527</v>
+      </c>
+      <c r="F11">
+        <v>-0.004777191018487888</v>
+      </c>
+      <c r="G11">
+        <v>0.02607036155366372</v>
+      </c>
+      <c r="H11">
+        <v>-0.04663663045480732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04096623356107081</v>
+        <v>-0.0340360524808497</v>
       </c>
       <c r="C12">
-        <v>-0.03620832939018555</v>
+        <v>0.04168150520616746</v>
       </c>
       <c r="D12">
-        <v>-0.05454936649920381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05588250803549944</v>
+      </c>
+      <c r="E12">
+        <v>-0.02011669151655626</v>
+      </c>
+      <c r="F12">
+        <v>0.001445516617775925</v>
+      </c>
+      <c r="G12">
+        <v>0.02817749642101014</v>
+      </c>
+      <c r="H12">
+        <v>-0.05323082330408979</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01327643656917443</v>
+        <v>-0.0198988728844325</v>
       </c>
       <c r="C13">
-        <v>-0.03671457492471514</v>
+        <v>0.03987683986707635</v>
       </c>
       <c r="D13">
-        <v>-0.128562197152236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1425403808472761</v>
+      </c>
+      <c r="E13">
+        <v>-0.0838530210003548</v>
+      </c>
+      <c r="F13">
+        <v>-0.02101768008465172</v>
+      </c>
+      <c r="G13">
+        <v>0.04071612317160655</v>
+      </c>
+      <c r="H13">
+        <v>-0.07729888111803036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0130644989195661</v>
+        <v>-0.00797552028636165</v>
       </c>
       <c r="C14">
-        <v>-0.0165462702996908</v>
+        <v>0.02375329184147131</v>
       </c>
       <c r="D14">
-        <v>-0.08061964324119406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.08412141110054824</v>
+      </c>
+      <c r="E14">
+        <v>-0.04542788207527428</v>
+      </c>
+      <c r="F14">
+        <v>0.01442021698808241</v>
+      </c>
+      <c r="G14">
+        <v>0.03813827330472989</v>
+      </c>
+      <c r="H14">
+        <v>-0.07958984916847538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001503566906407901</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.00741928297023896</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.02439499399786478</v>
+      </c>
+      <c r="E15">
+        <v>-0.006255994024347133</v>
+      </c>
+      <c r="F15">
+        <v>0.00283671167928116</v>
+      </c>
+      <c r="G15">
+        <v>-0.001164687331767212</v>
+      </c>
+      <c r="H15">
+        <v>-0.01382660191307354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03676294293569</v>
+        <v>-0.03073470721846243</v>
       </c>
       <c r="C16">
-        <v>-0.04546051658212499</v>
+        <v>0.04456643058012782</v>
       </c>
       <c r="D16">
-        <v>-0.06401963238961121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06126692122062419</v>
+      </c>
+      <c r="E16">
+        <v>-0.02211424964024026</v>
+      </c>
+      <c r="F16">
+        <v>0.009366818983355457</v>
+      </c>
+      <c r="G16">
+        <v>0.02381268069205223</v>
+      </c>
+      <c r="H16">
+        <v>-0.05239314487907024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01456884448665369</v>
+        <v>-0.01240897235220542</v>
       </c>
       <c r="C19">
-        <v>-0.03433338399227281</v>
+        <v>0.030831587257654</v>
       </c>
       <c r="D19">
-        <v>-0.1784681906276508</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1354330464706956</v>
+      </c>
+      <c r="E19">
+        <v>-0.07457278303816645</v>
+      </c>
+      <c r="F19">
+        <v>0.02967208856491407</v>
+      </c>
+      <c r="G19">
+        <v>0.006851574073956224</v>
+      </c>
+      <c r="H19">
+        <v>-0.04943862608221079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01977695990154981</v>
+        <v>-0.01638552240878386</v>
       </c>
       <c r="C20">
-        <v>-0.03100861024300458</v>
+        <v>0.03593779010494948</v>
       </c>
       <c r="D20">
-        <v>-0.09227345413851759</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09421335550022532</v>
+      </c>
+      <c r="E20">
+        <v>-0.06501626429476375</v>
+      </c>
+      <c r="F20">
+        <v>0.007176237791600722</v>
+      </c>
+      <c r="G20">
+        <v>0.02230448308435757</v>
+      </c>
+      <c r="H20">
+        <v>-0.04335312288041943</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01183488092748489</v>
+        <v>-0.01524789409247346</v>
       </c>
       <c r="C21">
-        <v>-0.02392364650457642</v>
+        <v>0.03657876681473798</v>
       </c>
       <c r="D21">
-        <v>-0.129037115215245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1330653890471251</v>
+      </c>
+      <c r="E21">
+        <v>-0.1030158010386977</v>
+      </c>
+      <c r="F21">
+        <v>0.01593106105127056</v>
+      </c>
+      <c r="G21">
+        <v>0.08120090461300931</v>
+      </c>
+      <c r="H21">
+        <v>-0.077047725586788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.0003902610088829941</v>
+        <v>-0.00562593181388146</v>
       </c>
       <c r="C22">
-        <v>-0.01481605831562218</v>
+        <v>0.03620235025625337</v>
       </c>
       <c r="D22">
-        <v>-0.05754609395393884</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1180971462383856</v>
+      </c>
+      <c r="E22">
+        <v>-0.03436634115541211</v>
+      </c>
+      <c r="F22">
+        <v>-0.07350612304209155</v>
+      </c>
+      <c r="G22">
+        <v>-0.05199766735791118</v>
+      </c>
+      <c r="H22">
+        <v>0.007685993781730048</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.0003434089560842917</v>
+        <v>-0.005706015233943059</v>
       </c>
       <c r="C23">
-        <v>-0.01463714674568147</v>
+        <v>0.03659631701401466</v>
       </c>
       <c r="D23">
-        <v>-0.05723257992337901</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1173824536844017</v>
+      </c>
+      <c r="E23">
+        <v>-0.03453694073836125</v>
+      </c>
+      <c r="F23">
+        <v>-0.07345457903667976</v>
+      </c>
+      <c r="G23">
+        <v>-0.05131550288662347</v>
+      </c>
+      <c r="H23">
+        <v>0.00816011051196802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03498496096297463</v>
+        <v>-0.03194531893038539</v>
       </c>
       <c r="C24">
-        <v>-0.04427105964626515</v>
+        <v>0.05204434689960171</v>
       </c>
       <c r="D24">
-        <v>-0.06168649879214238</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06437123278933281</v>
+      </c>
+      <c r="E24">
+        <v>-0.02709134172633134</v>
+      </c>
+      <c r="F24">
+        <v>0.007055247614618159</v>
+      </c>
+      <c r="G24">
+        <v>0.04019398825237274</v>
+      </c>
+      <c r="H24">
+        <v>-0.0580740877194239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04364048282607195</v>
+        <v>-0.03744199142259655</v>
       </c>
       <c r="C25">
-        <v>-0.04695161842916688</v>
+        <v>0.05085355480705936</v>
       </c>
       <c r="D25">
-        <v>-0.06430289466651511</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06017850776040619</v>
+      </c>
+      <c r="E25">
+        <v>-0.02500727229303485</v>
+      </c>
+      <c r="F25">
+        <v>-0.006592005864112113</v>
+      </c>
+      <c r="G25">
+        <v>0.03664206842232411</v>
+      </c>
+      <c r="H25">
+        <v>-0.0447534030072228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02242984188304608</v>
+        <v>-0.02091987846249868</v>
       </c>
       <c r="C26">
-        <v>-0.008357129969392342</v>
+        <v>0.01794615671876231</v>
       </c>
       <c r="D26">
-        <v>-0.0560237938009814</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06446171766315302</v>
+      </c>
+      <c r="E26">
+        <v>-0.03362837301936106</v>
+      </c>
+      <c r="F26">
+        <v>0.00526954821809618</v>
+      </c>
+      <c r="G26">
+        <v>0.02191514025734959</v>
+      </c>
+      <c r="H26">
+        <v>-0.04996151311388382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.121401522935427</v>
+        <v>-0.1750673500992593</v>
       </c>
       <c r="C28">
-        <v>0.2793034882447858</v>
+        <v>-0.2596178291599618</v>
       </c>
       <c r="D28">
-        <v>0.01766419902706754</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01133839181136774</v>
+      </c>
+      <c r="E28">
+        <v>-0.07532752713922308</v>
+      </c>
+      <c r="F28">
+        <v>-0.004553596402199291</v>
+      </c>
+      <c r="G28">
+        <v>0.07355997737883357</v>
+      </c>
+      <c r="H28">
+        <v>0.01989828328032861</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.00648535704994746</v>
+        <v>-0.007194087344130632</v>
       </c>
       <c r="C29">
-        <v>-0.01856679552552913</v>
+        <v>0.02232978721791697</v>
       </c>
       <c r="D29">
-        <v>-0.06433988057821075</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.07759181750636332</v>
+      </c>
+      <c r="E29">
+        <v>-0.04894135358983891</v>
+      </c>
+      <c r="F29">
+        <v>0.0002144476413172249</v>
+      </c>
+      <c r="G29">
+        <v>0.05120900984850593</v>
+      </c>
+      <c r="H29">
+        <v>-0.07399723515618145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04198387853446811</v>
+        <v>-0.04368352669029872</v>
       </c>
       <c r="C30">
-        <v>-0.03072723389004483</v>
+        <v>0.05549181457107289</v>
       </c>
       <c r="D30">
-        <v>-0.1444591046038254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1684014015130766</v>
+      </c>
+      <c r="E30">
+        <v>-0.03483025366729864</v>
+      </c>
+      <c r="F30">
+        <v>0.0007225600848458827</v>
+      </c>
+      <c r="G30">
+        <v>-0.01896116679651671</v>
+      </c>
+      <c r="H30">
+        <v>-0.01640603353788532</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06428255324162956</v>
+        <v>-0.05792572936995583</v>
       </c>
       <c r="C31">
-        <v>-0.04928258189077171</v>
+        <v>0.07030293397312568</v>
       </c>
       <c r="D31">
-        <v>-0.06208056736086598</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05032310062495231</v>
+      </c>
+      <c r="E31">
+        <v>-0.04788543529817227</v>
+      </c>
+      <c r="F31">
+        <v>-0.03988029769308855</v>
+      </c>
+      <c r="G31">
+        <v>0.02400148971669114</v>
+      </c>
+      <c r="H31">
+        <v>-0.02135960704351167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.001958968862351764</v>
+        <v>-0.0108467204192077</v>
       </c>
       <c r="C32">
-        <v>-0.001145034091455537</v>
+        <v>0.01784913625224989</v>
       </c>
       <c r="D32">
-        <v>-0.06557041457401144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.08920373273355746</v>
+      </c>
+      <c r="E32">
+        <v>-0.09054132315540796</v>
+      </c>
+      <c r="F32">
+        <v>0.002819023101780047</v>
+      </c>
+      <c r="G32">
+        <v>0.07821208622933536</v>
+      </c>
+      <c r="H32">
+        <v>-0.05758843718298805</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02749743194159109</v>
+        <v>-0.02457969282463692</v>
       </c>
       <c r="C33">
-        <v>-0.03225454412405504</v>
+        <v>0.04445250725129676</v>
       </c>
       <c r="D33">
-        <v>-0.1375401309901649</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1321397763039976</v>
+      </c>
+      <c r="E33">
+        <v>-0.05960209037981403</v>
+      </c>
+      <c r="F33">
+        <v>-0.01555614265283539</v>
+      </c>
+      <c r="G33">
+        <v>0.0302152588451603</v>
+      </c>
+      <c r="H33">
+        <v>-0.05319791604006099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0344355328243816</v>
+        <v>-0.03054771173333209</v>
       </c>
       <c r="C34">
-        <v>-0.05605516129654632</v>
+        <v>0.05893243710452215</v>
       </c>
       <c r="D34">
-        <v>-0.05847035620981669</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05844278942488861</v>
+      </c>
+      <c r="E34">
+        <v>-0.005643636136338814</v>
+      </c>
+      <c r="F34">
+        <v>0.005173589419587193</v>
+      </c>
+      <c r="G34">
+        <v>0.03904577696098886</v>
+      </c>
+      <c r="H34">
+        <v>-0.06202939613121042</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0004666434721513842</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0001401137434356617</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.002541033761420596</v>
+      </c>
+      <c r="E35">
+        <v>-0.000484624740930643</v>
+      </c>
+      <c r="F35">
+        <v>-0.0002556134119418063</v>
+      </c>
+      <c r="G35">
+        <v>0.001143705793211507</v>
+      </c>
+      <c r="H35">
+        <v>-0.002463989769967127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01859744633589791</v>
+        <v>-0.01773644849944925</v>
       </c>
       <c r="C36">
-        <v>-0.004995210033026588</v>
+        <v>0.01544601010968833</v>
       </c>
       <c r="D36">
-        <v>-0.07316159649662199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07549394698830003</v>
+      </c>
+      <c r="E36">
+        <v>-0.04496123783228742</v>
+      </c>
+      <c r="F36">
+        <v>0.004449174633363406</v>
+      </c>
+      <c r="G36">
+        <v>0.03394701683723129</v>
+      </c>
+      <c r="H36">
+        <v>-0.0402704398773377</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03016853219237052</v>
+        <v>-0.02429424423915961</v>
       </c>
       <c r="C38">
-        <v>-0.02260811132408199</v>
+        <v>0.02382636909444565</v>
       </c>
       <c r="D38">
-        <v>-0.05715554833220284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.05981634751297697</v>
+      </c>
+      <c r="E38">
+        <v>-0.04002415269806163</v>
+      </c>
+      <c r="F38">
+        <v>0.004351246127228862</v>
+      </c>
+      <c r="G38">
+        <v>-0.0238961090542324</v>
+      </c>
+      <c r="H38">
+        <v>-0.03488344381221286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0445353723691136</v>
+        <v>-0.03890867522043159</v>
       </c>
       <c r="C39">
-        <v>-0.05579468394899324</v>
+        <v>0.06336984065723936</v>
       </c>
       <c r="D39">
-        <v>-0.08127543485481142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.09904642897898938</v>
+      </c>
+      <c r="E39">
+        <v>-0.02463413090446017</v>
+      </c>
+      <c r="F39">
+        <v>0.02324673102153473</v>
+      </c>
+      <c r="G39">
+        <v>0.02934697321539475</v>
+      </c>
+      <c r="H39">
+        <v>-0.077079276215962</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01798999838999344</v>
+        <v>-0.01705208554067668</v>
       </c>
       <c r="C40">
-        <v>-0.04785033408850063</v>
+        <v>0.0398685206503594</v>
       </c>
       <c r="D40">
-        <v>-0.08262930122371258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.09728173813849081</v>
+      </c>
+      <c r="E40">
+        <v>-0.09109824802574439</v>
+      </c>
+      <c r="F40">
+        <v>-0.0467174470348054</v>
+      </c>
+      <c r="G40">
+        <v>0.0296821693429583</v>
+      </c>
+      <c r="H40">
+        <v>-0.1406695005806193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02384653073361992</v>
+        <v>-0.02231835437628753</v>
       </c>
       <c r="C41">
-        <v>0.003406008352032299</v>
+        <v>0.008538919451375016</v>
       </c>
       <c r="D41">
-        <v>-0.07639084880418442</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05919871392193108</v>
+      </c>
+      <c r="E41">
+        <v>-0.05946326872479529</v>
+      </c>
+      <c r="F41">
+        <v>0.003993069231500295</v>
+      </c>
+      <c r="G41">
+        <v>0.01519620397948885</v>
+      </c>
+      <c r="H41">
+        <v>-0.03729446326864706</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03482339617780117</v>
+        <v>-0.02565553050244603</v>
       </c>
       <c r="C43">
-        <v>-0.01034794476187098</v>
+        <v>0.02010247739036912</v>
       </c>
       <c r="D43">
-        <v>-0.115429734212681</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.09042785593076667</v>
+      </c>
+      <c r="E43">
+        <v>-0.0475615041914949</v>
+      </c>
+      <c r="F43">
+        <v>-0.003619415641084751</v>
+      </c>
+      <c r="G43">
+        <v>0.01882721156506119</v>
+      </c>
+      <c r="H43">
+        <v>-0.05329616507546336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01427387530487453</v>
+        <v>-0.0179304054892374</v>
       </c>
       <c r="C44">
-        <v>-0.04628499958665121</v>
+        <v>0.04261663682414612</v>
       </c>
       <c r="D44">
-        <v>-0.08224702045446632</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0945993953494252</v>
+      </c>
+      <c r="E44">
+        <v>-0.08278392256747491</v>
+      </c>
+      <c r="F44">
+        <v>0.006880631184728006</v>
+      </c>
+      <c r="G44">
+        <v>0.03600490910404525</v>
+      </c>
+      <c r="H44">
+        <v>-0.0564270384884863</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02103353765708058</v>
+        <v>-0.01677117860073418</v>
       </c>
       <c r="C46">
-        <v>-0.01681513684924472</v>
+        <v>0.02898535728437186</v>
       </c>
       <c r="D46">
-        <v>-0.07436802286054318</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08548284987984325</v>
+      </c>
+      <c r="E46">
+        <v>-0.05339015259959638</v>
+      </c>
+      <c r="F46">
+        <v>0.02203280075347691</v>
+      </c>
+      <c r="G46">
+        <v>0.06060029563232486</v>
+      </c>
+      <c r="H46">
+        <v>-0.07645975197591023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0950338691570507</v>
+        <v>-0.08943550076529153</v>
       </c>
       <c r="C47">
-        <v>-0.06829045626900594</v>
+        <v>0.08818743193818147</v>
       </c>
       <c r="D47">
-        <v>-0.03877253244659935</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02989390942173567</v>
+      </c>
+      <c r="E47">
+        <v>-0.03805670413112307</v>
+      </c>
+      <c r="F47">
+        <v>-0.02437613604414032</v>
+      </c>
+      <c r="G47">
+        <v>0.05382513114128965</v>
+      </c>
+      <c r="H47">
+        <v>0.01294410855329035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02100020695329041</v>
+        <v>-0.01930272564253544</v>
       </c>
       <c r="C48">
-        <v>-0.005192955778451999</v>
+        <v>0.0184364370706729</v>
       </c>
       <c r="D48">
-        <v>-0.07289339674905534</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.076896436244136</v>
+      </c>
+      <c r="E48">
+        <v>-0.05814732310414969</v>
+      </c>
+      <c r="F48">
+        <v>0.01770945439400407</v>
+      </c>
+      <c r="G48">
+        <v>0.03096110022557401</v>
+      </c>
+      <c r="H48">
+        <v>-0.04111878600888293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07772214932729515</v>
+        <v>-0.06469299514382264</v>
       </c>
       <c r="C50">
-        <v>-0.06998185986828483</v>
+        <v>0.07059497764081411</v>
       </c>
       <c r="D50">
-        <v>-0.06683513648800093</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05661969225065201</v>
+      </c>
+      <c r="E50">
+        <v>-0.05059733191221349</v>
+      </c>
+      <c r="F50">
+        <v>-0.04119657338416977</v>
+      </c>
+      <c r="G50">
+        <v>0.005487063307810788</v>
+      </c>
+      <c r="H50">
+        <v>-0.03076289124503478</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01037399156023459</v>
+        <v>-0.008991800154594862</v>
       </c>
       <c r="C51">
-        <v>-0.02536159182428311</v>
+        <v>0.01999341516418279</v>
       </c>
       <c r="D51">
-        <v>-0.08596069135284888</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09034685992778557</v>
+      </c>
+      <c r="E51">
+        <v>-0.03717861739818053</v>
+      </c>
+      <c r="F51">
+        <v>0.005709801560419353</v>
+      </c>
+      <c r="G51">
+        <v>0.01343942687844963</v>
+      </c>
+      <c r="H51">
+        <v>-0.07262919256655996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07877306571146626</v>
+        <v>-0.09094223878851856</v>
       </c>
       <c r="C53">
-        <v>-0.08174520650001824</v>
+        <v>0.09538040746463354</v>
       </c>
       <c r="D53">
-        <v>-0.01968882061964575</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.001539171909894602</v>
+      </c>
+      <c r="E53">
+        <v>-0.09844582998637812</v>
+      </c>
+      <c r="F53">
+        <v>-0.02650326273942725</v>
+      </c>
+      <c r="G53">
+        <v>0.07962319258188159</v>
+      </c>
+      <c r="H53">
+        <v>0.05628005506667393</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03475175545371036</v>
+        <v>-0.02741097922085328</v>
       </c>
       <c r="C54">
-        <v>-0.02563517563847354</v>
+        <v>0.03351580132181455</v>
       </c>
       <c r="D54">
-        <v>-0.08200275003964526</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08598655017367289</v>
+      </c>
+      <c r="E54">
+        <v>-0.0527233999555692</v>
+      </c>
+      <c r="F54">
+        <v>0.02177434988557397</v>
+      </c>
+      <c r="G54">
+        <v>0.03558279375566435</v>
+      </c>
+      <c r="H54">
+        <v>-0.09826455770871281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0863308761142339</v>
+        <v>-0.08817875279394426</v>
       </c>
       <c r="C55">
-        <v>-0.06157744531765055</v>
+        <v>0.07848172355638185</v>
       </c>
       <c r="D55">
-        <v>-0.002726723800672672</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01509918415647837</v>
+      </c>
+      <c r="E55">
+        <v>-0.05881814244503145</v>
+      </c>
+      <c r="F55">
+        <v>-0.03082865793031647</v>
+      </c>
+      <c r="G55">
+        <v>0.03184021668213388</v>
+      </c>
+      <c r="H55">
+        <v>0.03842818898724921</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1382079525377228</v>
+        <v>-0.1393826727771441</v>
       </c>
       <c r="C56">
-        <v>-0.09472955410469333</v>
+        <v>0.1188420900972645</v>
       </c>
       <c r="D56">
-        <v>-0.006927240515827071</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01818987235702614</v>
+      </c>
+      <c r="E56">
+        <v>-0.05373748944625904</v>
+      </c>
+      <c r="F56">
+        <v>-0.01874372828927938</v>
+      </c>
+      <c r="G56">
+        <v>0.04076902407258612</v>
+      </c>
+      <c r="H56">
+        <v>0.04287278895264482</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.04284980175684485</v>
+        <v>-0.04078056314797086</v>
       </c>
       <c r="C58">
-        <v>0.007465883602884326</v>
+        <v>0.02369801525931526</v>
       </c>
       <c r="D58">
-        <v>-0.4353459891809157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3827979657012391</v>
+      </c>
+      <c r="E58">
+        <v>-0.2284199416194494</v>
+      </c>
+      <c r="F58">
+        <v>-0.1095439366977242</v>
+      </c>
+      <c r="G58">
+        <v>-0.4846090790734564</v>
+      </c>
+      <c r="H58">
+        <v>0.2632328169038996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1350801594650836</v>
+        <v>-0.1638475068002467</v>
       </c>
       <c r="C59">
-        <v>0.2070607570593999</v>
+        <v>-0.1806069571014466</v>
       </c>
       <c r="D59">
-        <v>-0.02656748309106947</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04425960249274703</v>
+      </c>
+      <c r="E59">
+        <v>-0.01516579376441844</v>
+      </c>
+      <c r="F59">
+        <v>0.0344116143028989</v>
+      </c>
+      <c r="G59">
+        <v>-0.008711952024002054</v>
+      </c>
+      <c r="H59">
+        <v>0.01841632860066644</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2661859502390079</v>
+        <v>-0.2399983169706303</v>
       </c>
       <c r="C60">
-        <v>-0.08349256840357519</v>
+        <v>0.09737215925783971</v>
       </c>
       <c r="D60">
-        <v>-0.1275503886014441</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1326184290331376</v>
+      </c>
+      <c r="E60">
+        <v>0.3548868974923781</v>
+      </c>
+      <c r="F60">
+        <v>-0.09510039533187602</v>
+      </c>
+      <c r="G60">
+        <v>0.001645340475865531</v>
+      </c>
+      <c r="H60">
+        <v>0.06511028788002293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04879055426295983</v>
+        <v>-0.04259882682534667</v>
       </c>
       <c r="C61">
-        <v>-0.05025344130701033</v>
+        <v>0.05639167342884139</v>
       </c>
       <c r="D61">
-        <v>-0.09529632686294234</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09198350065455482</v>
+      </c>
+      <c r="E61">
+        <v>-0.02361048166597022</v>
+      </c>
+      <c r="F61">
+        <v>0.01218308307199979</v>
+      </c>
+      <c r="G61">
+        <v>0.04516910289754805</v>
+      </c>
+      <c r="H61">
+        <v>-0.06460233815461827</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01476090216819037</v>
+        <v>-0.01501961159180743</v>
       </c>
       <c r="C63">
-        <v>-0.01506542572773089</v>
+        <v>0.02607178511156768</v>
       </c>
       <c r="D63">
-        <v>-0.05209614880934761</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0660565306825107</v>
+      </c>
+      <c r="E63">
+        <v>-0.05320789034874816</v>
+      </c>
+      <c r="F63">
+        <v>-0.02326177270328924</v>
+      </c>
+      <c r="G63">
+        <v>0.01323750866424759</v>
+      </c>
+      <c r="H63">
+        <v>-0.03425573021438699</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05499465301594814</v>
+        <v>-0.05548176643680917</v>
       </c>
       <c r="C64">
-        <v>-0.05418536968532651</v>
+        <v>0.07102812508227638</v>
       </c>
       <c r="D64">
-        <v>-0.06115095378446446</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0514567818567568</v>
+      </c>
+      <c r="E64">
+        <v>-0.04483430490888458</v>
+      </c>
+      <c r="F64">
+        <v>0.02272655204697813</v>
+      </c>
+      <c r="G64">
+        <v>0.0675411221887475</v>
+      </c>
+      <c r="H64">
+        <v>-0.0223349744931343</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06361965737814072</v>
+        <v>-0.05444815173966389</v>
       </c>
       <c r="C65">
-        <v>-0.0149140043955398</v>
+        <v>0.02382468694958235</v>
       </c>
       <c r="D65">
-        <v>-0.1087551846505918</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1126742011575285</v>
+      </c>
+      <c r="E65">
+        <v>-0.01193427516021409</v>
+      </c>
+      <c r="F65">
+        <v>-0.02227924542778673</v>
+      </c>
+      <c r="G65">
+        <v>-0.04267374926160361</v>
+      </c>
+      <c r="H65">
+        <v>0.01832715516027806</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04793114630995264</v>
+        <v>-0.04586631050545433</v>
       </c>
       <c r="C66">
-        <v>-0.05503502015520821</v>
+        <v>0.06901793149147177</v>
       </c>
       <c r="D66">
-        <v>-0.106059893336765</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1229923746900394</v>
+      </c>
+      <c r="E66">
+        <v>-0.02562383850917202</v>
+      </c>
+      <c r="F66">
+        <v>0.01311417369904761</v>
+      </c>
+      <c r="G66">
+        <v>0.01728366264802799</v>
+      </c>
+      <c r="H66">
+        <v>-0.05730778763832942</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04928010505520428</v>
+        <v>-0.04054707752663143</v>
       </c>
       <c r="C67">
-        <v>-0.02803029990441278</v>
+        <v>0.0291124203127751</v>
       </c>
       <c r="D67">
-        <v>-0.02991026446525752</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02556283680558123</v>
+      </c>
+      <c r="E67">
+        <v>-0.02264917697556236</v>
+      </c>
+      <c r="F67">
+        <v>-0.002884033568223863</v>
+      </c>
+      <c r="G67">
+        <v>-0.0199572601631455</v>
+      </c>
+      <c r="H67">
+        <v>-0.03397717189791726</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1536412762006784</v>
+        <v>-0.1802597166247763</v>
       </c>
       <c r="C68">
-        <v>0.2769208708554657</v>
+        <v>-0.2275101766563296</v>
       </c>
       <c r="D68">
-        <v>0.01290910312784151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.008833241486548741</v>
+      </c>
+      <c r="E68">
+        <v>-0.05549819202049826</v>
+      </c>
+      <c r="F68">
+        <v>-0.02425275855686355</v>
+      </c>
+      <c r="G68">
+        <v>0.003762249300388041</v>
+      </c>
+      <c r="H68">
+        <v>0.0002335874654498706</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0892946878904598</v>
+        <v>-0.08136532139163301</v>
       </c>
       <c r="C69">
-        <v>-0.07824425137146011</v>
+        <v>0.09652875734872866</v>
       </c>
       <c r="D69">
-        <v>-0.04647622531344796</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04240069024086607</v>
+      </c>
+      <c r="E69">
+        <v>-0.03272596419630408</v>
+      </c>
+      <c r="F69">
+        <v>-0.001732920897700671</v>
+      </c>
+      <c r="G69">
+        <v>0.04765044654585222</v>
+      </c>
+      <c r="H69">
+        <v>-0.006178375731872047</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1285027043487109</v>
+        <v>-0.1675478244917847</v>
       </c>
       <c r="C71">
-        <v>0.2550441590407266</v>
+        <v>-0.2304658796303236</v>
       </c>
       <c r="D71">
-        <v>-0.03757203280184606</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03705215163343602</v>
+      </c>
+      <c r="E71">
+        <v>-0.05392000388985611</v>
+      </c>
+      <c r="F71">
+        <v>-0.01939513032249246</v>
+      </c>
+      <c r="G71">
+        <v>0.04177692763698545</v>
+      </c>
+      <c r="H71">
+        <v>-0.006260741382225393</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09805837547962529</v>
+        <v>-0.1017084149876032</v>
       </c>
       <c r="C72">
-        <v>-0.04766637008808786</v>
+        <v>0.06155401907485034</v>
       </c>
       <c r="D72">
-        <v>-0.08207246278434274</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09102803798341072</v>
+      </c>
+      <c r="E72">
+        <v>0.01306310507354223</v>
+      </c>
+      <c r="F72">
+        <v>-0.03010970877426579</v>
+      </c>
+      <c r="G72">
+        <v>0.04942295691719303</v>
+      </c>
+      <c r="H72">
+        <v>-0.01801987394395532</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3134694584848018</v>
+        <v>-0.2745007687970991</v>
       </c>
       <c r="C73">
-        <v>-0.02632044111713187</v>
+        <v>0.06987165765133541</v>
       </c>
       <c r="D73">
-        <v>-0.1951750892738458</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.2084678377845123</v>
+      </c>
+      <c r="E73">
+        <v>0.6659621345110298</v>
+      </c>
+      <c r="F73">
+        <v>-0.1005151682457025</v>
+      </c>
+      <c r="G73">
+        <v>-0.0685088058722948</v>
+      </c>
+      <c r="H73">
+        <v>0.08053960284876394</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1074355151520085</v>
+        <v>-0.1068934620422484</v>
       </c>
       <c r="C74">
-        <v>-0.07136726074872138</v>
+        <v>0.08898828163513223</v>
       </c>
       <c r="D74">
-        <v>-0.03531241495850823</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.004675032126772031</v>
+      </c>
+      <c r="E74">
+        <v>-0.07877529690245133</v>
+      </c>
+      <c r="F74">
+        <v>-0.04469191915424631</v>
+      </c>
+      <c r="G74">
+        <v>0.03134478192928473</v>
+      </c>
+      <c r="H74">
+        <v>0.07971259340910637</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2522026167538233</v>
+        <v>-0.2459875776100982</v>
       </c>
       <c r="C75">
-        <v>-0.119234909984616</v>
+        <v>0.1526799830225462</v>
       </c>
       <c r="D75">
-        <v>0.0646387030341971</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1186886799219611</v>
+      </c>
+      <c r="E75">
+        <v>-0.07111086389830894</v>
+      </c>
+      <c r="F75">
+        <v>0.01778667452042854</v>
+      </c>
+      <c r="G75">
+        <v>0.01578814234548082</v>
+      </c>
+      <c r="H75">
+        <v>0.1632312239205428</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1225803648170676</v>
+        <v>-0.1280630884222813</v>
       </c>
       <c r="C76">
-        <v>-0.08234828795632326</v>
+        <v>0.1054472021086409</v>
       </c>
       <c r="D76">
-        <v>-0.002106965952351455</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02542877892390261</v>
+      </c>
+      <c r="E76">
+        <v>-0.1179161936733011</v>
+      </c>
+      <c r="F76">
+        <v>-0.0116738645874896</v>
+      </c>
+      <c r="G76">
+        <v>0.05140028430632548</v>
+      </c>
+      <c r="H76">
+        <v>0.04398850621672452</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08196218158579731</v>
+        <v>-0.06903860594430092</v>
       </c>
       <c r="C77">
-        <v>-0.02410385199224482</v>
+        <v>0.06930820542996699</v>
       </c>
       <c r="D77">
-        <v>-0.1161384297826418</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1174992916271617</v>
+      </c>
+      <c r="E77">
+        <v>-0.103660842390829</v>
+      </c>
+      <c r="F77">
+        <v>0.2926348142503624</v>
+      </c>
+      <c r="G77">
+        <v>-0.1775055566571566</v>
+      </c>
+      <c r="H77">
+        <v>0.09044038662019679</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04025972058275305</v>
+        <v>-0.0419256685113934</v>
       </c>
       <c r="C78">
-        <v>-0.04846949218922925</v>
+        <v>0.06064773589645124</v>
       </c>
       <c r="D78">
-        <v>-0.1063340876202116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1215262783464297</v>
+      </c>
+      <c r="E78">
+        <v>-0.03427963425464121</v>
+      </c>
+      <c r="F78">
+        <v>-0.01590690941867669</v>
+      </c>
+      <c r="G78">
+        <v>0.04531999948773551</v>
+      </c>
+      <c r="H78">
+        <v>-0.02826203100605095</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.002332773138220309</v>
+        <v>-0.04080007452110046</v>
       </c>
       <c r="C79">
-        <v>0.001032840174318601</v>
+        <v>0.07338842930216349</v>
       </c>
       <c r="D79">
-        <v>-0.0182467662683181</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05141684298509329</v>
+      </c>
+      <c r="E79">
+        <v>-0.1589267620878977</v>
+      </c>
+      <c r="F79">
+        <v>-0.07834436845732114</v>
+      </c>
+      <c r="G79">
+        <v>0.3805030679571225</v>
+      </c>
+      <c r="H79">
+        <v>0.6791843748833566</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03312155350164216</v>
+        <v>-0.02734469495639883</v>
       </c>
       <c r="C80">
-        <v>-0.02742476686728665</v>
+        <v>0.04112899920093301</v>
       </c>
       <c r="D80">
-        <v>-0.03466472299420344</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03692675237875956</v>
+      </c>
+      <c r="E80">
+        <v>-0.01332810808467386</v>
+      </c>
+      <c r="F80">
+        <v>0.03669724719064129</v>
+      </c>
+      <c r="G80">
+        <v>-0.02461571019975104</v>
+      </c>
+      <c r="H80">
+        <v>-0.04461456853335347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1474193398809059</v>
+        <v>-0.135320094382078</v>
       </c>
       <c r="C81">
-        <v>-0.08019026107276075</v>
+        <v>0.1094591594116104</v>
       </c>
       <c r="D81">
-        <v>0.03520939435884124</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07622314385785957</v>
+      </c>
+      <c r="E81">
+        <v>-0.1097316843018867</v>
+      </c>
+      <c r="F81">
+        <v>-0.001908097250793373</v>
+      </c>
+      <c r="G81">
+        <v>0.03300265050951949</v>
+      </c>
+      <c r="H81">
+        <v>0.06756730715965559</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2801627403470789</v>
+        <v>-0.2506226990720977</v>
       </c>
       <c r="C82">
-        <v>-0.2157588721274966</v>
+        <v>0.2225350074907268</v>
       </c>
       <c r="D82">
-        <v>0.2328674416623629</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2325238585997962</v>
+      </c>
+      <c r="E82">
+        <v>-0.008789959955897583</v>
+      </c>
+      <c r="F82">
+        <v>-0.03907806121383187</v>
+      </c>
+      <c r="G82">
+        <v>0.3856073018879326</v>
+      </c>
+      <c r="H82">
+        <v>-0.4008613905529926</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04043182847595881</v>
+        <v>-0.02599100550268064</v>
       </c>
       <c r="C83">
-        <v>-0.03436492030880595</v>
+        <v>0.04977292987900578</v>
       </c>
       <c r="D83">
-        <v>-0.06576979382425911</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05021404618429175</v>
+      </c>
+      <c r="E83">
+        <v>-0.006386932980047722</v>
+      </c>
+      <c r="F83">
+        <v>0.02165968463324915</v>
+      </c>
+      <c r="G83">
+        <v>0.003821785925692082</v>
+      </c>
+      <c r="H83">
+        <v>-0.03099264654844726</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0002116987620805357</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.003353354724255192</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.006726996860540564</v>
+      </c>
+      <c r="E84">
+        <v>-0.01062732630769076</v>
+      </c>
+      <c r="F84">
+        <v>-0.00406650396460655</v>
+      </c>
+      <c r="G84">
+        <v>-0.005722456933033722</v>
+      </c>
+      <c r="H84">
+        <v>-0.007298662003121123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1833688782222178</v>
+        <v>-0.1676155256261717</v>
       </c>
       <c r="C85">
-        <v>-0.09228874954864581</v>
+        <v>0.1195057803366257</v>
       </c>
       <c r="D85">
-        <v>0.06166244107390233</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08928161347510866</v>
+      </c>
+      <c r="E85">
+        <v>-0.03511039483854696</v>
+      </c>
+      <c r="F85">
+        <v>-0.0312962978492217</v>
+      </c>
+      <c r="G85">
+        <v>0.05430516131393757</v>
+      </c>
+      <c r="H85">
+        <v>0.1482984069430884</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01530506029813731</v>
+        <v>-0.02020566292850294</v>
       </c>
       <c r="C86">
-        <v>-0.02254263539377439</v>
+        <v>0.01587079792594505</v>
       </c>
       <c r="D86">
-        <v>-0.132977529471641</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1182769719578846</v>
+      </c>
+      <c r="E86">
+        <v>-0.02393749570605025</v>
+      </c>
+      <c r="F86">
+        <v>0.01113299501249818</v>
+      </c>
+      <c r="G86">
+        <v>0.0445942691970761</v>
+      </c>
+      <c r="H86">
+        <v>-0.06532162689882534</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02947451699162165</v>
+        <v>-0.03303705786247695</v>
       </c>
       <c r="C87">
-        <v>-0.002146684570119117</v>
+        <v>0.02386383391432469</v>
       </c>
       <c r="D87">
-        <v>-0.09904125932142002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1242978029123569</v>
+      </c>
+      <c r="E87">
+        <v>-0.09212358928028734</v>
+      </c>
+      <c r="F87">
+        <v>0.02533927481537461</v>
+      </c>
+      <c r="G87">
+        <v>0.006176594097258847</v>
+      </c>
+      <c r="H87">
+        <v>-0.02932210244725917</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.08454577981058854</v>
+        <v>-0.07507925223148336</v>
       </c>
       <c r="C88">
-        <v>-0.056801702203449</v>
+        <v>0.06229365375591372</v>
       </c>
       <c r="D88">
-        <v>-0.04757557466686918</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02894428765811774</v>
+      </c>
+      <c r="E88">
+        <v>-0.03900593479360509</v>
+      </c>
+      <c r="F88">
+        <v>0.003201620117984736</v>
+      </c>
+      <c r="G88">
+        <v>0.004199893088316523</v>
+      </c>
+      <c r="H88">
+        <v>-0.01575413684588274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1963413778043364</v>
+        <v>-0.2500772774279253</v>
       </c>
       <c r="C89">
-        <v>0.3646066948969852</v>
+        <v>-0.3555770154857216</v>
       </c>
       <c r="D89">
-        <v>0.02453228199462354</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.001900503965079439</v>
+      </c>
+      <c r="E89">
+        <v>-0.07575799106830031</v>
+      </c>
+      <c r="F89">
+        <v>0.04621032134310336</v>
+      </c>
+      <c r="G89">
+        <v>0.04786786830133165</v>
+      </c>
+      <c r="H89">
+        <v>-0.03751679941536513</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1871427595165835</v>
+        <v>-0.2235423068515839</v>
       </c>
       <c r="C90">
-        <v>0.3021512815917581</v>
+        <v>-0.274733282326296</v>
       </c>
       <c r="D90">
-        <v>0.01973210890501483</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01221408565453145</v>
+      </c>
+      <c r="E90">
+        <v>-0.05569726513843418</v>
+      </c>
+      <c r="F90">
+        <v>-0.003809600713572651</v>
+      </c>
+      <c r="G90">
+        <v>-0.02225901625185927</v>
+      </c>
+      <c r="H90">
+        <v>-0.06457675191800982</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.185358864287738</v>
+        <v>-0.1750228060178975</v>
       </c>
       <c r="C91">
-        <v>-0.1427050088754719</v>
+        <v>0.1599192076269309</v>
       </c>
       <c r="D91">
-        <v>0.05208091315837182</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08677470706830122</v>
+      </c>
+      <c r="E91">
+        <v>-0.09320625639358308</v>
+      </c>
+      <c r="F91">
+        <v>-0.02005100560322011</v>
+      </c>
+      <c r="G91">
+        <v>0.02401102393804105</v>
+      </c>
+      <c r="H91">
+        <v>0.1588431063561762</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1588674230958621</v>
+        <v>-0.2020268424511763</v>
       </c>
       <c r="C92">
-        <v>0.3092202637273266</v>
+        <v>-0.2879560202462149</v>
       </c>
       <c r="D92">
-        <v>-0.01180858872551958</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01232868524760607</v>
+      </c>
+      <c r="E92">
+        <v>-0.06817285876073445</v>
+      </c>
+      <c r="F92">
+        <v>0.03971601626876476</v>
+      </c>
+      <c r="G92">
+        <v>-0.0001295763051800702</v>
+      </c>
+      <c r="H92">
+        <v>-0.01564548803886461</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2105531757059954</v>
+        <v>-0.2452172202968185</v>
       </c>
       <c r="C93">
-        <v>0.3273644390276275</v>
+        <v>-0.2936055785438331</v>
       </c>
       <c r="D93">
-        <v>0.01286226600426612</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01172191825190366</v>
+      </c>
+      <c r="E93">
+        <v>-0.02997103849557288</v>
+      </c>
+      <c r="F93">
+        <v>-0.03282936566122947</v>
+      </c>
+      <c r="G93">
+        <v>0.01774012030005412</v>
+      </c>
+      <c r="H93">
+        <v>-0.009053104261682522</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3967593504153972</v>
+        <v>-0.3473874558070121</v>
       </c>
       <c r="C94">
-        <v>-0.2191484592998713</v>
+        <v>0.2390296317332249</v>
       </c>
       <c r="D94">
-        <v>0.4709041386701182</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4376772126529219</v>
+      </c>
+      <c r="E94">
+        <v>-0.1120387743905026</v>
+      </c>
+      <c r="F94">
+        <v>0.03843699968755741</v>
+      </c>
+      <c r="G94">
+        <v>-0.5648912720866984</v>
+      </c>
+      <c r="H94">
+        <v>-0.1357116353280383</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.09637744329480197</v>
+        <v>-0.07549441470878887</v>
       </c>
       <c r="C95">
-        <v>0.007704501899404761</v>
+        <v>0.04920223225492257</v>
       </c>
       <c r="D95">
-        <v>-0.05445434516694488</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.08212832595639891</v>
+      </c>
+      <c r="E95">
+        <v>0.114616034106983</v>
+      </c>
+      <c r="F95">
+        <v>0.9074122340353756</v>
+      </c>
+      <c r="G95">
+        <v>0.0624735666865656</v>
+      </c>
+      <c r="H95">
+        <v>0.08788071145216998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1780930767567126</v>
+        <v>-0.1717196501959846</v>
       </c>
       <c r="C98">
-        <v>-0.02975615467108854</v>
+        <v>0.05437997913522149</v>
       </c>
       <c r="D98">
-        <v>-0.1291411461833691</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1395727550270089</v>
+      </c>
+      <c r="E98">
+        <v>0.2847111775355784</v>
+      </c>
+      <c r="F98">
+        <v>-0.0895354001931296</v>
+      </c>
+      <c r="G98">
+        <v>0.01817098708403206</v>
+      </c>
+      <c r="H98">
+        <v>0.02282129759544605</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.006336847897310311</v>
+        <v>-0.007348627314088879</v>
       </c>
       <c r="C101">
-        <v>-0.01786013274698301</v>
+        <v>0.02139761184465734</v>
       </c>
       <c r="D101">
-        <v>-0.06411274416484788</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.07752416646736927</v>
+      </c>
+      <c r="E101">
+        <v>-0.04991053587450132</v>
+      </c>
+      <c r="F101">
+        <v>0.001205542137015911</v>
+      </c>
+      <c r="G101">
+        <v>0.05174069989204912</v>
+      </c>
+      <c r="H101">
+        <v>-0.0737543992928136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1289507539975837</v>
+        <v>-0.1175765465679316</v>
       </c>
       <c r="C102">
-        <v>-0.09005244382617114</v>
+        <v>0.1136816526602282</v>
       </c>
       <c r="D102">
-        <v>0.03606287850865089</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05415652526565918</v>
+      </c>
+      <c r="E102">
+        <v>-0.02649055779237476</v>
+      </c>
+      <c r="F102">
+        <v>0.0184903780279571</v>
+      </c>
+      <c r="G102">
+        <v>0.0445590197432456</v>
+      </c>
+      <c r="H102">
+        <v>0.01256979199913555</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
